--- a/moyusi/Keywords/Web/全部商品-全部上架商品.xlsx
+++ b/moyusi/Keywords/Web/全部商品-全部上架商品.xlsx
@@ -536,10 +536,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F:\Dayu\moyusi\Keywords\Web\商品上传图片.exe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击-小程序分享图片按钮</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -882,6 +878,9 @@
   <si>
     <t>椅子</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F:\jenkins\workspace\AutoTestinh-Web\moyusi\Keywords\Web\商品上传图片.exe</t>
   </si>
 </sst>
 </file>
@@ -1290,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1385,7 +1384,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1574,7 +1573,7 @@
         <v>19</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="12" t="s">
@@ -1931,10 +1930,10 @@
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F45" s="11"/>
     </row>
@@ -1943,7 +1942,7 @@
         <v>20</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -1972,7 +1971,7 @@
         <v>19</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C48" s="12">
         <v>0</v>
@@ -2053,7 +2052,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>77</v>
@@ -2065,7 +2064,7 @@
         <v>87</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F54" s="11"/>
     </row>
@@ -2103,7 +2102,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>77</v>
@@ -2115,7 +2114,7 @@
         <v>999.99</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F57" s="11"/>
     </row>
@@ -2153,7 +2152,7 @@
         <v>19</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D60" s="19"/>
       <c r="E60" s="12" t="s">
@@ -2208,7 +2207,7 @@
         <v>98</v>
       </c>
       <c r="D64" t="s">
-        <v>99</v>
+        <v>187</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>98</v>
@@ -2239,7 +2238,7 @@
       </c>
       <c r="D66" s="19"/>
       <c r="E66" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F66" s="14"/>
     </row>
@@ -2261,7 +2260,7 @@
         <v>98</v>
       </c>
       <c r="D68" t="s">
-        <v>99</v>
+        <v>187</v>
       </c>
       <c r="E68" s="12" t="s">
         <v>98</v>
@@ -2292,7 +2291,7 @@
       </c>
       <c r="D70" s="19"/>
       <c r="E70" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F70" s="14"/>
     </row>
@@ -2314,7 +2313,7 @@
         <v>98</v>
       </c>
       <c r="D72" t="s">
-        <v>99</v>
+        <v>187</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>98</v>
@@ -2338,13 +2337,13 @@
         <v>9</v>
       </c>
       <c r="D74" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F74" s="21" t="s">
         <v>102</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F74" s="21" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2359,7 +2358,7 @@
       </c>
       <c r="D75" s="19"/>
       <c r="E75" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F75" s="14"/>
     </row>
@@ -2374,10 +2373,10 @@
         <v>5</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F76" s="11"/>
     </row>
@@ -2386,13 +2385,13 @@
         <v>9</v>
       </c>
       <c r="D77" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E77" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="F77" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2407,7 +2406,7 @@
       </c>
       <c r="D78" s="19"/>
       <c r="E78" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F78" s="14"/>
     </row>
@@ -2422,10 +2421,10 @@
         <v>6</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F79" s="11"/>
     </row>
@@ -2434,13 +2433,13 @@
         <v>9</v>
       </c>
       <c r="D80" t="s">
+        <v>110</v>
+      </c>
+      <c r="E80" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="F80" t="s">
         <v>112</v>
-      </c>
-      <c r="F80" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="81" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2455,7 +2454,7 @@
       </c>
       <c r="D81" s="19"/>
       <c r="E81" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F81" s="14"/>
     </row>
@@ -2470,10 +2469,10 @@
         <v>7</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F82" s="11"/>
     </row>
@@ -2482,13 +2481,13 @@
         <v>9</v>
       </c>
       <c r="D83" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E83" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="F83" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2503,7 +2502,7 @@
       </c>
       <c r="D84" s="19"/>
       <c r="E84" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F84" s="14"/>
     </row>
@@ -2518,10 +2517,10 @@
         <v>8</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F85" s="11"/>
     </row>
@@ -2530,13 +2529,13 @@
         <v>9</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2550,10 +2549,10 @@
         <v>9</v>
       </c>
       <c r="D87" s="19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F87" s="14"/>
     </row>
@@ -2571,7 +2570,7 @@
         <v>1111</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F88" s="11"/>
     </row>
@@ -2580,13 +2579,13 @@
         <v>9</v>
       </c>
       <c r="D89" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2601,7 +2600,7 @@
       </c>
       <c r="D90" s="19"/>
       <c r="E90" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F90" s="14"/>
     </row>
@@ -2616,10 +2615,10 @@
         <v>10</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F91" s="11"/>
     </row>
@@ -2628,13 +2627,13 @@
         <v>9</v>
       </c>
       <c r="D92" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E92" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="F92" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="93" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2649,7 +2648,7 @@
       </c>
       <c r="D93" s="19"/>
       <c r="E93" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F93" s="14"/>
     </row>
@@ -2664,10 +2663,10 @@
         <v>11</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F94" s="11"/>
     </row>
@@ -2676,13 +2675,13 @@
         <v>9</v>
       </c>
       <c r="D95" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F95" s="21" t="s">
         <v>128</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F95" s="21" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="96" spans="1:6" s="12" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2690,26 +2689,26 @@
         <v>19</v>
       </c>
       <c r="B96" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D96" s="19"/>
       <c r="E96" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F96" s="14"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B97" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F97" s="11"/>
     </row>
@@ -2731,11 +2730,11 @@
         <v>19</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F99" s="11"/>
     </row>
@@ -2745,13 +2744,13 @@
       </c>
       <c r="B100" s="13"/>
       <c r="D100" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="101" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2772,24 +2771,24 @@
         <v>19</v>
       </c>
       <c r="B102" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E102" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B103" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D103" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="E103" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="D103" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -2797,21 +2796,21 @@
         <v>19</v>
       </c>
       <c r="B104" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D105" s="26" t="s">
+        <v>162</v>
+      </c>
+      <c r="E105" s="25" t="s">
         <v>164</v>
-      </c>
-      <c r="D105" s="26" t="s">
-        <v>163</v>
-      </c>
-      <c r="E105" s="25" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -2819,10 +2818,10 @@
         <v>19</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E106" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="107" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2856,7 +2855,7 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>77</v>
@@ -2868,7 +2867,7 @@
         <v>888.99</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F109" s="11"/>
     </row>
@@ -2890,11 +2889,11 @@
         <v>19</v>
       </c>
       <c r="B111" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F111" s="11"/>
     </row>
@@ -2904,13 +2903,13 @@
       </c>
       <c r="B112" s="13"/>
       <c r="D112" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F112" s="21" t="s">
         <v>168</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="F112" s="21" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="113" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2988,13 +2987,13 @@
         <v>20</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C118" s="1">
         <v>1</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -3002,13 +3001,13 @@
         <v>19</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C119" s="1">
         <v>0</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="120" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3029,13 +3028,13 @@
         <v>35</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="F121" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -3043,10 +3042,10 @@
         <v>19</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -3054,13 +3053,13 @@
         <v>9</v>
       </c>
       <c r="D123" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="124" spans="1:6" s="8" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">

--- a/moyusi/Keywords/Web/全部商品-全部上架商品.xlsx
+++ b/moyusi/Keywords/Web/全部商品-全部上架商品.xlsx
@@ -880,7 +880,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F:\jenkins\workspace\AutoTestinh-Web\moyusi\Keywords\Web\商品上传图片.exe</t>
+    <t>F:\jenkins\workspace\Auto-Testing_Web\moyusi\Keywords\Web\商品上传图片.exe</t>
   </si>
 </sst>
 </file>
@@ -1289,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1298,7 +1298,7 @@
     <col min="1" max="1" width="25" style="1" customWidth="1"/>
     <col min="2" max="2" width="55" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26" style="18" customWidth="1"/>
+    <col min="4" max="4" width="42.875" style="18" customWidth="1"/>
     <col min="5" max="5" width="23.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="33.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1"/>

--- a/moyusi/Keywords/Web/全部商品-全部上架商品.xlsx
+++ b/moyusi/Keywords/Web/全部商品-全部上架商品.xlsx
@@ -880,7 +880,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F:\jenkins\workspace\Auto-Testing_Web\moyusi\Keywords\Web\商品上传图片.exe</t>
+    <t>F:\jenkins\workspace\Auto-Testing-Web\moyusi\Keywords\Web\商品上传图片.exe</t>
   </si>
 </sst>
 </file>
@@ -1290,7 +1290,7 @@
   <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/moyusi/Keywords/Web/全部商品-全部上架商品.xlsx
+++ b/moyusi/Keywords/Web/全部商品-全部上架商品.xlsx
@@ -880,7 +880,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F:\jenkins\workspace\Auto-Testing-Web\moyusi\Keywords\Web\商品上传图片.exe</t>
+    <t>F:\jenkins\workspace\AutoTesting-Web\moyusi\Keywords\Web\商品上传图片.exe</t>
   </si>
 </sst>
 </file>
